--- a/01 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/4 - stagiaireAfpa.xlsx
+++ b/01 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/4 - stagiaireAfpa.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GIT CDA 22-23\_Reference\01 - Persistance des données\02 - Mettre en place une base de données\03 - Remplir les tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C47A5F-399E-4CCF-9D9E-6B2C54227660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2BC3D-5946-436B-AE21-0EC357CEE329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stagiaireafpa" sheetId="1" r:id="rId1"/>
+    <sheet name="constitutions" sheetId="3" r:id="rId2"/>
+    <sheet name="animations" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">animations!$A$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constitutions!$D$2:$E$21</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">animations!$D$1:$E$1</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">constitutions!$G$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="114">
   <si>
     <t>adresse</t>
   </si>
@@ -370,6 +378,9 @@
   </si>
   <si>
     <t>idFormation</t>
+  </si>
+  <si>
+    <t>IdMatiere</t>
   </si>
 </sst>
 </file>
@@ -693,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -896,6 +907,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -941,7 +963,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -953,6 +975,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1276,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2781,4 +2804,802 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4665804F-8520-4E33-9919-FE2DDEB973F5}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,"&amp;G2&amp;","&amp;H2&amp;");"</f>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,1,3);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B21" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I13" si="2">"INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,"&amp;G3&amp;","&amp;H3&amp;");"</f>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,5,1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,2,1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,1,3);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,5,2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,3,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,3,3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,3,2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,1,1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,4,3);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,2,2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `constitutions`(`idConstitution`, `idFormation`, `idMatiere`) VALUES (null,4,2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400D1A8F-872A-435F-8848-0F639DFE6EC7}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(D2,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(E2,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null," &amp; G2&amp;","&amp;F2&amp;");"</f>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,2,5);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(D3,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(E3,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H9" si="0">"INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null," &amp; G3&amp;","&amp;F3&amp;");"</f>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,1,3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(D4,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(E4,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,2,2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(D5,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(E5,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,4,5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(D6,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(E6,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,1,4);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(D7,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(E7,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,3,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(D8,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(E8,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,4,3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(D9,stagiaireafpa!$A$22:$D$27,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(E9,stagiaireafpa!$B$40:$C$43,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `animations`(`idAnimation`, `idFormateur`, `idFormation`) VALUES (null,4,2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>